--- a/database/industries/kashi/kazar/eps.xlsx
+++ b/database/industries/kashi/kazar/eps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -34,34 +34,28 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
-    <t>1399</t>
-  </si>
-  <si>
     <t>1398</t>
   </si>
   <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>1396</t>
-  </si>
-  <si>
-    <t>1401/03/08</t>
-  </si>
-  <si>
-    <t>1400/03/11</t>
-  </si>
-  <si>
-    <t>1399/02/31</t>
-  </si>
-  <si>
-    <t>1398/03/13</t>
-  </si>
-  <si>
-    <t>1397/03/08</t>
+    <t>1400/05/01</t>
+  </si>
+  <si>
+    <t>1401/12/06</t>
+  </si>
+  <si>
+    <t>1400/08/18</t>
+  </si>
+  <si>
+    <t>1399/05/30</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>788</v>
+        <v>38046</v>
       </c>
       <c r="D2">
-        <v>735</v>
+        <v>14179</v>
       </c>
       <c r="E2">
-        <v>700000</v>
+        <v>266930</v>
       </c>
       <c r="F2">
-        <v>700000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2087</v>
+        <v>371</v>
       </c>
       <c r="D3">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>200000</v>
+        <v>74530</v>
       </c>
       <c r="F3">
-        <v>700000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1665</v>
+        <v>1979</v>
       </c>
       <c r="D4">
-        <v>1720</v>
+        <v>2162</v>
       </c>
       <c r="E4">
-        <v>200000</v>
+        <v>411131</v>
       </c>
       <c r="F4">
-        <v>700000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,39 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>1273</v>
+        <v>37347</v>
       </c>
       <c r="D5">
-        <v>1150</v>
+        <v>18750</v>
       </c>
       <c r="E5">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="F5">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>477</v>
-      </c>
-      <c r="D6">
-        <v>385</v>
-      </c>
-      <c r="E6">
-        <v>200000</v>
-      </c>
-      <c r="F6">
-        <v>700000</v>
+        <v>266930</v>
       </c>
     </row>
   </sheetData>
